--- a/BackTest/2020-01-24 BackTest BSV.xlsx
+++ b/BackTest/2020-01-24 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>405.8327235400001</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>415.34822354</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>420.16512354</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>655.69682416</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>631.64552416</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>630.1544241600001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>641.3252241600001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>672.42542416</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>672.42542416</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>587.21752416</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>573.96622416</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>573.96622416</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>476.70022416</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>465.03722416</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>460.73252416</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>435.6146241599999</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>428.15532416</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>428.15532416</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>282.74322416</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>290.74402416</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>290.83402416</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>304.05183628</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>300.72753628</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>300.94753628</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>299.76533628</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>291.76533628</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>232.98575437</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>21.78935436999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1220.97927875</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1171.29347875</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1505.69097875</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1368.80237875</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1402.17017875</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1298.98027875</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1249.64367875</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1300.06177271</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1302.68677271</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1361.62290164</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1361.62290164</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1360.59013057</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1407.2994595</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1405.7404595</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1405.7404595</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1300.3621595</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1342.6307595</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1267.5262595</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1272.8010595</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1266.7274595</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1266.7368595</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1171.6876595</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1012.9860595</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1056.9691595</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1130.6596595</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1152.0832595</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1221.4542595</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1206.36202087</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1206.40202087</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1218.03032214</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1175.53062214</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1172.58822203</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1173.85322262</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1174.80347944</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1181.91067944</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1178.06797944</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1177.74797944</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1194.92369251</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1238.3131028</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1237.9031028</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1238.3134028</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1240.6393028</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1238.4703028</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1237.2745028</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1237.7313028</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1234.16822743</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1234.18142743</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1234.18142743</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1224.60442743</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1230.14402743</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1232.18292743</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1232.18292743</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1237.42062743</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1395.74152743</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1379.76242634</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1395.41382634</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1395.41382634</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1389.41592634</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1423.42902634</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1421.71612634</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1421.71612634</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1420.53502634</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1420.53702634</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1420.66102634</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1401.54352634</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1389.31722634</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1393.77432634</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1392.09472634</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1396.18272634</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1406.69862634</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1406.69862634</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1406.45862634</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1411.39152634</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1412.39152634</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1431.71152634</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1388.21322634</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1389.21322634</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1390.13182634</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1390.12382634</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1397.84932634</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1398.45132634</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1405.88102634</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1405.80102634</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1409.59542634</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1404.64090689</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1406.52650689</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1406.52650689</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1416.30320689</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1425.95490689</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1555.85310689</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1553.11830689</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1569.61380689</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1553.98590689</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1326.11870689</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1356.11870689</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1299.41850689</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1302.95740689</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1302.86540689</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1302.86540689</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1297.87350689</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1297.87750689</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1297.87750689</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1322.74740689</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1322.65740689</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1322.66140689</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1388.14370689</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1446.34270689</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1446.84270689</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1446.84270689</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1481.73310689</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1481.73310689</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1438.27070689</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1435.98010689</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1435.98010689</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1435.98010689</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1373.17560689</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1373.30440689</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1373.29520689</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1373.29520689</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1373.29520689</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1367.04780689</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1367.04780689</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1436.57660689</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1544.83100689</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1544.83100689</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1541.54610689</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1541.54610689</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1550.08320689</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1587.89150689</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1540.48620689</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1549.72310689</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1531.00950689</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1531.34120689</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1556.82980689</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1559.54460689</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1559.54460689</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1588.51110689</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1558.14710689</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1622.58480689</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1433.79761674</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1378.955416739999</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1378.955416739999</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1378.955416739999</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1375.926716739999</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1378.132416739999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1378.132416739999</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1378.132416739999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1346.638316739999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1352.557816739999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1443.568516739999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1444.568516739999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1442.48201674</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1450.49911674</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1450.36911674</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1453.08801674</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1446.92091674</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1440.93591674</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1433.06181674</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1386.86011674</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1399.88821674</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1395.07611674</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1365.05232737</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1365.05232737</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1351.08242737</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1343.20182737</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1347.20472737</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1343.50542737</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1109.19622737</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1112.78391972</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1102.51741972</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1033.92501688</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1031.50231688</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1031.50231688</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1086.97641688</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1046.89311688</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1037.22341688</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1123.89561688</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1117.80571688</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1215.45911688</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1200.60445395</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1458.18055395</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1460.20275395</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1458.62235395</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1411.31995395</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1411.31995395</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1411.37815395</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1405.08625395</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1394.44505395</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1394.44505395</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1374.05265339</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1374.05265339</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1388.28415339</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1384.96385339</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1384.96385339</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1391.83475339</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1385.15155339</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1390.29845339</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1388.75135339</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1388.75135339</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1412.70755339</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1412.70755339</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1411.51215339</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1410.55755339</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1397.41821463</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1509.335914629999</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1702.267414629999</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1686.966614629999</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1687.835114629999</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1698.19811463</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1730.248214049999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1711.664713469999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1711.634713469999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1686.804513469999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1686.804513469999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1690.634513469999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1690.634513469999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1687.255713469999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1692.148913469999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1700.097711169999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1700.097711169999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1722.64730887</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1700.22220657</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1700.22220657</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1665.930006569999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1670.73220657</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1668.79530697</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1671.561006969999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1671.561006969999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1670.401006969999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1674.336006969999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1663.568806969999</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1663.568806969999</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1663.568806969999</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1663.568806969999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1660.955706969999</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1660.955706969999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1663.584706969999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1670.141106969999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1670.031106969999</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1662.789806969999</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1666.517506969999</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1666.517506969999</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1678.530006969999</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1672.603506969999</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1597.845606969999</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1611.126906969999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1613.982606969999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1693.479806969999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1730.392006969999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1783.132106969999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1791.166006969999</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1791.166006969999</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1785.367406969999</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1768.864606969999</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1826.287106969999</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1790.955406969999</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1791.045906969999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1789.429706969999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1788.514706969999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1786.055806969999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1800.594006969999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1800.594006969999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1777.951506969999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1777.951506969999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1777.951506969999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1594.124506969999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1619.218706969999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1610.623206969999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1588.782006969999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1570.007506969999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1570.007506969999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1574.478606969999</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1573.886406969999</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1573.886406969999</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1564.331306969999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1565.306406969999</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1565.212606969999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1570.969407079999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1555.338574759999</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1510.587173679999</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1494.319474569999</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1438.277774179999</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1417.279176459999</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1436.411975079999</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1398.644675079999</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1493.926840939999</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1492.591440939999</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1496.431740939999</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1498.230240939999</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1498.14024094</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1483.66833866</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1420.01363866</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1037.83423866</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1138.72123082</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1238.71735074</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1243.04665074</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1233.78993715</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1248.83273715</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1145.42223715</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1145.46033715</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1144.44683715</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1258.31963715</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-960.4477371499999</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-960.4477371499999</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-968.3074371499998</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-968.3074371499998</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1054.54833715</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1113.63233715</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1084.64553715</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1084.81620814</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1287.68540814</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1272.49550814</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1272.61550814</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1275.89470814</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1345.12580814</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1359.99420814</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1360.58490814</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1360.58490814</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1363.98720814</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1363.98720814</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1353.39850814</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1426.03095708</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1449.62155708</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1528.32535708</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1520.604757079999</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1534.64615708</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1545.035157079999</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1527.459944389999</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1533.079844389999</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1533.079844389999</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1560.562776799999</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1512.312276799999</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-1512.312276799999</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-1497.035576799999</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-1541.661254379999</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-1581.410554379999</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1770.578803019999</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1718.396551659999</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-1713.764003019999</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-1713.764003019999</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-1719.111302439999</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-1719.111302439999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1722.202202439999</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1694.592802439999</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1694.592802439999</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-1693.805402439999</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-1678.467202439999</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1649.951002439999</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-1649.951002439999</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-1659.380602439999</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-1663.073602439999</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-1663.073602439999</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-1663.073602439999</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-1721.048702439999</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-1610.173302439999</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-1610.173302439999</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-1611.803302439999</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-1611.803302439999</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-1647.891702439999</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-1647.713002439999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1694.771202439999</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-1720.187802439999</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-1737.647902439999</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1737.647902439999</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1719.142602439999</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-1718.847202439999</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-1728.089402439999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1728.089402439999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1743.503002439999</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1862.386202439999</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-1906.436602439999</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-1941.93900244</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1969.61100244</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-1992.160102439999</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-1972.39460244</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-2051.82460244</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-2201.852402439999</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-2140.678602439999</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-2203.185802439999</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-2167.037094509999</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-2182.943094509999</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-2181.567794509999</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-2185.124594509999</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-2175.253666179999</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-2404.465866179999</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-2614.616366179999</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-2752.314166179999</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-2272.537866179999</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-2272.537866179999</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-2305.944866179999</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-2397.506366179999</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-2220.747866179999</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-2337.243966179999</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-2541.702066179999</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-2369.960966179999</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-2290.959367509999</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-2120.869166179999</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-2144.543966179999</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1972.556366179999</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-2052.091566179999</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-2027.233866179999</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1868.827866179999</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1958.870266179999</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-1887.887893889999</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-1887.887893889999</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-2142.675856299998</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-2022.542651069999</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-2103.934151069999</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1871.679897779999</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1805.997697779999</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-1805.997697779999</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-2015.611897779999</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-2153.989097779999</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-2947.820272439999</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-2426.251972439999</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-2510.180472439999</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-2890.203072439999</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-3328.029972439999</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -22858,17 +22858,11 @@
         <v>-2224.840878739997</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="n">
-        <v>328000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22901,11 +22895,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22938,11 +22928,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22975,11 +22961,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23012,11 +22994,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23049,11 +23027,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23086,11 +23060,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23123,11 +23093,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23160,11 +23126,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23197,11 +23159,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23230,17 +23188,11 @@
         <v>-2191.448578739997</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>326700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23273,11 +23225,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23306,17 +23254,11 @@
         <v>-2091.475078739998</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>326800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23345,17 +23287,11 @@
         <v>-2032.177678739998</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>325900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23388,11 +23324,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23425,11 +23357,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23462,11 +23390,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23499,11 +23423,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23536,11 +23456,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23573,11 +23489,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23610,11 +23522,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23647,11 +23555,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23684,11 +23588,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23721,11 +23621,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23758,11 +23654,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23795,11 +23687,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23832,11 +23720,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23869,11 +23753,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23906,11 +23786,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23943,11 +23819,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23980,11 +23852,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24017,11 +23885,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24054,11 +23918,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24091,11 +23951,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24128,11 +23984,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24165,11 +24017,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24202,11 +24050,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24239,11 +24083,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24276,11 +24116,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24313,11 +24149,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24350,11 +24182,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24387,11 +24215,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24424,11 +24248,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24461,11 +24281,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24498,11 +24314,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24535,11 +24347,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24572,11 +24380,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24609,11 +24413,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24642,13 +24442,15 @@
         <v>-5112.373121829995</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>319900</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L729" t="n">
@@ -24679,7 +24481,7 @@
         <v>-5328.452021259995</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>318900</v>
@@ -24718,7 +24520,7 @@
         <v>-5223.269820689996</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731" t="n">
         <v>318700</v>
@@ -24757,7 +24559,7 @@
         <v>-5089.982021259996</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>319100</v>
@@ -24796,7 +24598,7 @@
         <v>-5251.256821259996</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I733" t="n">
         <v>319200</v>
@@ -24835,7 +24637,7 @@
         <v>-5292.627721259996</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734" t="n">
         <v>317700</v>
@@ -24874,9 +24676,11 @@
         <v>-5481.868821259996</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>317300</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -24911,7 +24715,7 @@
         <v>-5330.021521259996</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>315400</v>
@@ -24950,7 +24754,7 @@
         <v>-5144.772421259996</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>316000</v>
@@ -24989,7 +24793,7 @@
         <v>-4788.819121259996</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>317400</v>
@@ -25028,7 +24832,7 @@
         <v>-4741.917740039996</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I739" t="n">
         <v>318200</v>
@@ -25067,7 +24871,7 @@
         <v>-4471.561244669996</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>319500</v>
@@ -25106,9 +24910,11 @@
         <v>-4674.816389599996</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>320900</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -26586,11 +26392,9 @@
         <v>-4336.252708929996</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
-      </c>
-      <c r="I781" t="n">
-        <v>326500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -26625,11 +26429,9 @@
         <v>-4336.252708929996</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="n">
-        <v>325200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -26664,11 +26466,9 @@
         <v>-4374.113208929995</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="n">
-        <v>325200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -26703,11 +26503,9 @@
         <v>-4303.242808929996</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
-      </c>
-      <c r="I784" t="n">
-        <v>324000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26742,11 +26540,9 @@
         <v>-4409.837008929995</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="n">
-        <v>324400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26818,11 +26614,9 @@
         <v>-4395.818408929995</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="n">
-        <v>325000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -27264,11 +27058,9 @@
         <v>-4316.223370459997</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
-      </c>
-      <c r="I799" t="n">
-        <v>324000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27303,11 +27095,9 @@
         <v>-4316.223370459997</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
-      </c>
-      <c r="I800" t="n">
-        <v>324000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27342,11 +27132,9 @@
         <v>-4284.164070459997</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
-      </c>
-      <c r="I801" t="n">
-        <v>324000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27381,11 +27169,9 @@
         <v>-4197.933670459996</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
-      </c>
-      <c r="I802" t="n">
-        <v>324700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27420,11 +27206,9 @@
         <v>-4191.799041829996</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
-      </c>
-      <c r="I803" t="n">
-        <v>326600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27459,11 +27243,9 @@
         <v>-4282.211941829996</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
-      </c>
-      <c r="I804" t="n">
-        <v>326900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27535,11 +27317,9 @@
         <v>-4293.570041829996</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
-      </c>
-      <c r="I806" t="n">
-        <v>325200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27574,11 +27354,9 @@
         <v>-4302.469441829996</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="n">
-        <v>324600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27613,11 +27391,9 @@
         <v>-4367.742241829996</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
-      </c>
-      <c r="I808" t="n">
-        <v>324300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27652,11 +27428,9 @@
         <v>-4503.586254829996</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
-      </c>
-      <c r="I809" t="n">
-        <v>324000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27691,11 +27465,9 @@
         <v>-4521.606054829996</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
-      </c>
-      <c r="I810" t="n">
-        <v>323300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27730,11 +27502,9 @@
         <v>-4932.546754829996</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
-      </c>
-      <c r="I811" t="n">
-        <v>323100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27769,11 +27539,9 @@
         <v>-4998.872554819995</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
-      </c>
-      <c r="I812" t="n">
-        <v>322600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27808,11 +27576,9 @@
         <v>-4996.672554819996</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
-      </c>
-      <c r="I813" t="n">
-        <v>322000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27847,11 +27613,9 @@
         <v>-5074.884954819996</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
-      </c>
-      <c r="I814" t="n">
-        <v>323100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27886,11 +27650,9 @@
         <v>-4619.699554819996</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
-      </c>
-      <c r="I815" t="n">
-        <v>322000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27925,11 +27687,9 @@
         <v>-4690.046354819996</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
-      </c>
-      <c r="I816" t="n">
-        <v>322200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27964,11 +27724,9 @@
         <v>-4428.402654819996</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
-      </c>
-      <c r="I817" t="n">
-        <v>322000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28003,11 +27761,9 @@
         <v>-4428.402654819996</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
-      </c>
-      <c r="I818" t="n">
-        <v>322100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -28042,11 +27798,9 @@
         <v>-4158.312854819997</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
-      </c>
-      <c r="I819" t="n">
-        <v>322100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -28081,11 +27835,9 @@
         <v>-3973.357954819996</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
-      </c>
-      <c r="I820" t="n">
-        <v>322200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -28120,11 +27872,9 @@
         <v>-3939.280454819997</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
-      </c>
-      <c r="I821" t="n">
-        <v>323100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28196,11 +27946,9 @@
         <v>-3935.108854819996</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
-      </c>
-      <c r="I823" t="n">
-        <v>323100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28309,11 +28057,9 @@
         <v>-3962.202054819997</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
-      </c>
-      <c r="I826" t="n">
-        <v>323100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28385,11 +28131,9 @@
         <v>-4064.953954819996</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
-      </c>
-      <c r="I828" t="n">
-        <v>323400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28424,11 +28168,9 @@
         <v>-3944.189835089996</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
-      </c>
-      <c r="I829" t="n">
-        <v>322000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28463,11 +28205,9 @@
         <v>-3944.399835089996</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
-      </c>
-      <c r="I830" t="n">
-        <v>323300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28539,11 +28279,9 @@
         <v>-3970.070835089996</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
-      </c>
-      <c r="I832" t="n">
-        <v>323000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28578,11 +28316,9 @@
         <v>-3790.952635089996</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
-      </c>
-      <c r="I833" t="n">
-        <v>322900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28617,11 +28353,9 @@
         <v>-3656.041735089997</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
-      </c>
-      <c r="I834" t="n">
-        <v>323000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28656,11 +28390,9 @@
         <v>-3416.223035089997</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
-      </c>
-      <c r="I835" t="n">
-        <v>324100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28695,11 +28427,9 @@
         <v>-3230.583226129997</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
-      </c>
-      <c r="I836" t="n">
-        <v>326000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28771,11 +28501,9 @@
         <v>-3438.740118319997</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
-      </c>
-      <c r="I838" t="n">
-        <v>328500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28921,11 +28649,9 @@
         <v>-3300.380018319996</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="n">
-        <v>326500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -30107,11 +29833,9 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
-      </c>
-      <c r="I874" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -30146,11 +29870,9 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
-      </c>
-      <c r="I875" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -30185,11 +29907,9 @@
         <v>-3568.264072449997</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
-      </c>
-      <c r="I876" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -30261,11 +29981,9 @@
         <v>-3508.568272449997</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
-      </c>
-      <c r="I878" t="n">
-        <v>326500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -31114,11 +30832,9 @@
         <v>-2985.935696349997</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
-      </c>
-      <c r="I901" t="n">
-        <v>331600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -31782,11 +31498,9 @@
         <v>-3670.690680509998</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
-      </c>
-      <c r="I919" t="n">
-        <v>327300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31821,11 +31535,9 @@
         <v>-3691.797980509998</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
-      </c>
-      <c r="I920" t="n">
-        <v>328300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31860,11 +31572,9 @@
         <v>-3711.894180509998</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
-      </c>
-      <c r="I921" t="n">
-        <v>328200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31899,11 +31609,9 @@
         <v>-3740.139080509998</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
-      </c>
-      <c r="I922" t="n">
-        <v>327000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31938,11 +31646,9 @@
         <v>-3859.685480509998</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
-      </c>
-      <c r="I923" t="n">
-        <v>326500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -32384,11 +32090,9 @@
         <v>-4518.389967979999</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
-      </c>
-      <c r="I935" t="n">
-        <v>325100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -32423,11 +32127,9 @@
         <v>-4463.918243999999</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
-      </c>
-      <c r="I936" t="n">
-        <v>325100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -32462,11 +32164,9 @@
         <v>-4468.918243999999</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
-      </c>
-      <c r="I937" t="n">
-        <v>325600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -32501,11 +32201,9 @@
         <v>-4564.615743999999</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
-      </c>
-      <c r="I938" t="n">
-        <v>325000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -32651,11 +32349,9 @@
         <v>-4527.704843999998</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
-      </c>
-      <c r="I942" t="n">
-        <v>323300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32690,11 +32386,9 @@
         <v>-4700.171943999998</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
-      </c>
-      <c r="I943" t="n">
-        <v>323000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32729,11 +32423,9 @@
         <v>-4660.816192149998</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
-      </c>
-      <c r="I944" t="n">
-        <v>322500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32768,11 +32460,9 @@
         <v>-4660.816192149998</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
-      </c>
-      <c r="I945" t="n">
-        <v>324000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32807,11 +32497,9 @@
         <v>-4521.454017189998</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
-      </c>
-      <c r="I946" t="n">
-        <v>324000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32846,11 +32534,9 @@
         <v>-4479.171629829998</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
-      </c>
-      <c r="I947" t="n">
-        <v>325200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -33625,11 +33311,9 @@
         <v>-4668.772240949999</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
-      </c>
-      <c r="I968" t="n">
-        <v>325600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33664,11 +33348,9 @@
         <v>-4668.772240949999</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
-      </c>
-      <c r="I969" t="n">
-        <v>326900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -33703,11 +33385,9 @@
         <v>-4674.615840949999</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
-      </c>
-      <c r="I970" t="n">
-        <v>326900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33742,11 +33422,9 @@
         <v>-4637.555140949999</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
-      </c>
-      <c r="I971" t="n">
-        <v>326100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33781,11 +33459,9 @@
         <v>-4637.555140949999</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
-      </c>
-      <c r="I972" t="n">
-        <v>327000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -33820,11 +33496,9 @@
         <v>-4620.29823514</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
-      </c>
-      <c r="I973" t="n">
-        <v>327000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33859,11 +33533,9 @@
         <v>-4620.29823514</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
-      </c>
-      <c r="I974" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -33898,11 +33570,9 @@
         <v>-4618.41883514</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
-      </c>
-      <c r="I975" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -33937,11 +33607,9 @@
         <v>-4647.87719253</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
-      </c>
-      <c r="I976" t="n">
-        <v>328100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -33976,11 +33644,9 @@
         <v>-4695.35099253</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
-      </c>
-      <c r="I977" t="n">
-        <v>327500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -34015,11 +33681,9 @@
         <v>-4679.002492529999</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
-      </c>
-      <c r="I978" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -34054,11 +33718,9 @@
         <v>-4662.25809253</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
-      </c>
-      <c r="I979" t="n">
-        <v>328000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -34278,11 +33940,9 @@
         <v>-4742.50769253</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
-      </c>
-      <c r="I985" t="n">
-        <v>327000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -34317,11 +33977,9 @@
         <v>-4753.61709253</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
-      </c>
-      <c r="I986" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -34356,11 +34014,9 @@
         <v>-4728.201392530001</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
-      </c>
-      <c r="I987" t="n">
-        <v>326700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -34395,11 +34051,9 @@
         <v>-4728.201392530001</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
-      </c>
-      <c r="I988" t="n">
-        <v>328000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -34434,11 +34088,9 @@
         <v>-4284.964150590001</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
-      </c>
-      <c r="I989" t="n">
-        <v>328000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -34473,11 +34125,9 @@
         <v>-4266.855350590001</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
-      </c>
-      <c r="I990" t="n">
-        <v>329000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -34512,11 +34162,9 @@
         <v>-4338.154850590001</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
-      </c>
-      <c r="I991" t="n">
-        <v>329500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -34551,11 +34199,9 @@
         <v>-4270.486650590001</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
-      </c>
-      <c r="I992" t="n">
-        <v>329000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
@@ -34590,11 +34236,9 @@
         <v>-4212.936350590001</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
-      </c>
-      <c r="I993" t="n">
-        <v>329500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -34629,11 +34273,9 @@
         <v>-4269.776750590001</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
-      </c>
-      <c r="I994" t="n">
-        <v>329900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -34668,11 +34310,9 @@
         <v>-4269.776750590001</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
-      </c>
-      <c r="I995" t="n">
-        <v>329000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -34707,11 +34347,9 @@
         <v>-4325.803850590001</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
-      </c>
-      <c r="I996" t="n">
-        <v>329000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -34746,11 +34384,9 @@
         <v>-4325.803850590001</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
-      </c>
-      <c r="I997" t="n">
-        <v>328700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -34785,11 +34421,9 @@
         <v>-4428.309950590001</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
-      </c>
-      <c r="I998" t="n">
-        <v>328700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -34824,11 +34458,9 @@
         <v>-4336.399550590001</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
-      </c>
-      <c r="I999" t="n">
-        <v>328600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -34863,11 +34495,9 @@
         <v>-4350.395350590001</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1000" t="n">
-        <v>329600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34902,11 +34532,9 @@
         <v>-4328.820850590001</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1001" t="n">
-        <v>329500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34941,11 +34569,9 @@
         <v>-4285.954150590002</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>329600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34980,11 +34606,9 @@
         <v>-4285.954150590002</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>329900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -35019,11 +34643,9 @@
         <v>-4128.113750590001</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>329900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -35095,11 +34717,9 @@
         <v>-4186.505568560001</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>334000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -35319,11 +34939,9 @@
         <v>-4290.307791640002</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>331800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -35358,11 +34976,9 @@
         <v>-4121.471014720001</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>332000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -35397,11 +35013,9 @@
         <v>-4121.690008790001</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>332600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -35436,11 +35050,9 @@
         <v>-4130.809978380002</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>332300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -35475,11 +35087,9 @@
         <v>-4102.358775100001</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>331600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -35625,11 +35235,9 @@
         <v>-4047.470240830001</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>332600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -35664,11 +35272,9 @@
         <v>-4061.014540830001</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>332400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
@@ -35703,11 +35309,9 @@
         <v>-4177.151740830001</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>332000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -35742,11 +35346,9 @@
         <v>-4251.43245224</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>331700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35781,11 +35383,9 @@
         <v>-4226.194352240001</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>331000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -36005,11 +35605,9 @@
         <v>-4253.242952240001</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>331400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -36488,11 +36086,9 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>331300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -37674,11 +37270,9 @@
         <v>-4138.027314830001</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>330100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -38305,11 +37899,9 @@
         <v>-4155.82575532</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>330000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
@@ -38344,11 +37936,9 @@
         <v>-3953.50110563</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>330700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
@@ -39086,11 +38676,9 @@
         <v>-3959.15852691</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1113" t="n">
-        <v>332000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
@@ -39199,11 +38787,9 @@
         <v>-3989.14822691</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>331600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -39312,11 +38898,9 @@
         <v>-3888.0835763</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>332000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -39351,11 +38935,9 @@
         <v>-3920.433776299999</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>332800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -39390,11 +38972,9 @@
         <v>-3932.335425689999</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1121" t="n">
-        <v>332100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
@@ -39429,11 +39009,9 @@
         <v>-3945.456525689999</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>331800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -42539,11 +42117,9 @@
         <v>-3917.326521639999</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>327000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -42578,11 +42154,9 @@
         <v>-3925.223521639999</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1207" t="n">
-        <v>329100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
@@ -42617,11 +42191,9 @@
         <v>-3902.150821639998</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>328500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -42656,11 +42228,9 @@
         <v>-3901.894521639998</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>328700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -42695,11 +42265,9 @@
         <v>-3901.894521639998</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>329500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -42734,11 +42302,9 @@
         <v>-3901.894521639998</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>329500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -42773,11 +42339,9 @@
         <v>-3910.199921639999</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>329500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
@@ -42812,11 +42376,9 @@
         <v>-3910.199921639999</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1213" t="n">
-        <v>329400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
@@ -42851,11 +42413,9 @@
         <v>-3910.199921639999</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>329400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
@@ -42890,11 +42450,9 @@
         <v>-3901.646521639999</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1215" t="n">
-        <v>329400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
@@ -42929,11 +42487,9 @@
         <v>-4081.789121639999</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1216" t="n">
-        <v>330100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
@@ -42968,11 +42524,9 @@
         <v>-3990.637321639999</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>328900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
@@ -43007,11 +42561,9 @@
         <v>-4004.937821639999</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>329100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -43046,11 +42598,9 @@
         <v>-3983.574321639999</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>328800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
@@ -43196,11 +42746,9 @@
         <v>-4012.733321639998</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>327700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
@@ -43235,11 +42783,9 @@
         <v>-4012.733321639998</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1224" t="n">
-        <v>327800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
@@ -43274,11 +42820,9 @@
         <v>-4096.356121639998</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1225" t="n">
-        <v>327800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
@@ -43313,11 +42857,9 @@
         <v>-4137.244121639998</v>
       </c>
       <c r="H1226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1226" t="n">
-        <v>326900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
@@ -43352,11 +42894,9 @@
         <v>-4064.016921639999</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1227" t="n">
-        <v>326300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
@@ -43391,11 +42931,9 @@
         <v>-4064.342421639999</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1228" t="n">
-        <v>327700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
@@ -43430,11 +42968,9 @@
         <v>-3992.133121639999</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1229" t="n">
-        <v>327400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
@@ -43469,11 +43005,9 @@
         <v>-3989.594321639999</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>328100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
@@ -43508,11 +43042,9 @@
         <v>-3997.214721639999</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>328200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
@@ -43547,11 +43079,9 @@
         <v>-4021.152621639998</v>
       </c>
       <c r="H1232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>328100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
@@ -43586,11 +43116,9 @@
         <v>-4040.375521639999</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>328000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -43625,11 +43153,9 @@
         <v>-4110.969721639998</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>327900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
@@ -43664,11 +43190,9 @@
         <v>-4127.851021639998</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>326700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
@@ -43703,11 +43227,9 @@
         <v>-4127.851021639998</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>326400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
@@ -43742,11 +43264,9 @@
         <v>-4128.604721639998</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>326400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
@@ -43781,11 +43301,9 @@
         <v>-4036.542721639998</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>325300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
@@ -43820,11 +43338,9 @@
         <v>-3996.098321639999</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>326500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -43859,11 +43375,9 @@
         <v>-4016.877021639998</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>326900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -43898,11 +43412,9 @@
         <v>-4016.877021639998</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>326800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -43937,11 +43449,9 @@
         <v>-3908.770321639999</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>326800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -43976,11 +43486,9 @@
         <v>-3884.926621639999</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>327700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -44015,11 +43523,9 @@
         <v>-3884.926621639999</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>328400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -44054,11 +43560,9 @@
         <v>-3867.883821639999</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>328400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -44093,11 +43597,9 @@
         <v>-3867.519021949999</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>328600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -44132,11 +43634,9 @@
         <v>-3869.589721949999</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>328700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -44171,11 +43671,9 @@
         <v>-3883.377921949999</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>328400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -44210,11 +43708,9 @@
         <v>-3883.377921949999</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>328100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -44249,11 +43745,9 @@
         <v>-3940.438321949999</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>328100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -44288,11 +43782,9 @@
         <v>-3956.362021949999</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>328000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -44327,11 +43819,9 @@
         <v>-3956.362021949999</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>327900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
@@ -44366,11 +43856,9 @@
         <v>-3898.261519879999</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>327900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -44405,11 +43893,9 @@
         <v>-3902.574519879999</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>328000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
@@ -44422,6 +43908,6 @@
       <c r="M1254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>